--- a/summary.xlsx
+++ b/summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>序号</t>
   </si>
@@ -46,7 +46,19 @@
     <t>CacheGen KV Cache Compression and Streaming for Fast Large</t>
   </si>
   <si>
-    <t>LLM, network</t>
+    <t>LLM, kv cache, network</t>
+  </si>
+  <si>
+    <t>Efficient Memory Management for Large Language</t>
+  </si>
+  <si>
+    <t>User-Centric Interactive AI for Distributed Diffusion Model-based AI-Generated Content</t>
+  </si>
+  <si>
+    <t>difussion model, network</t>
+  </si>
+  <si>
+    <t>Online GNN Evaluation Under Test-Time Graph Distribution Shifts</t>
   </si>
 </sst>
 </file>
@@ -54,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -517,19 +529,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,12 +674,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -980,16 +995,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="65.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="86.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="27.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="11.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1019,6 +1034,34 @@
       </c>
       <c r="D2" s="1">
         <v>45510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -29,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>类型</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -40,7 +43,7 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Start Date</t>
+    <t>论文</t>
   </si>
   <si>
     <t>CacheGen KV Cache Compression and Streaming for Fast Large</t>
@@ -59,6 +62,24 @@
   </si>
   <si>
     <t>Online GNN Evaluation Under Test-Time Graph Distribution Shifts</t>
+  </si>
+  <si>
+    <t>知乎文章</t>
+  </si>
+  <si>
+    <t>聊聊大模型推理内存管理之 CachedAttention/MLA</t>
+  </si>
+  <si>
+    <t>MLSys</t>
+  </si>
+  <si>
+    <t>聊聊大模型推理中的分离式推理</t>
+  </si>
+  <si>
+    <t>Mooncake阅读笔记：深入学习以Cache为中心的调度思想，谱写LLM服务降本增效新篇章</t>
+  </si>
+  <si>
+    <t>量化那些事之KVCache的量化</t>
   </si>
 </sst>
 </file>
@@ -674,12 +695,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -995,17 +1019,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="86.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="27.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="11.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="86.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="27.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1022,46 +1046,98 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45510</v>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="10" spans="2:4">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="11" spans="2:4">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>类型</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Online GNN Evaluation Under Test-Time Graph Distribution Shifts</t>
+  </si>
+  <si>
+    <t>GNN</t>
   </si>
   <si>
     <t>知乎文章</t>
@@ -695,15 +698,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1083,17 +1083,20 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1101,21 +1104,21 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1123,10 +1126,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1134,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>类型</t>
   </si>
@@ -65,6 +65,27 @@
   </si>
   <si>
     <t>GNN</t>
+  </si>
+  <si>
+    <t>Towards Efficient Generative Large Language Model Serving: A Survey from Algorithms to Systems</t>
+  </si>
+  <si>
+    <t>Splitwise: Efficient generative LLM inference using phase splitting</t>
+  </si>
+  <si>
+    <t>NanoFlow: Towards Optimal Large Language Model Serving Throughput</t>
+  </si>
+  <si>
+    <t>TPI-LLM: Serving 70B-scale LLMs Efficiently on Low-resource Edge Devices</t>
+  </si>
+  <si>
+    <t>SimLayerKV A Simple Framework for Layer-Level KV Cache Reduction</t>
+  </si>
+  <si>
+    <t>AI-Generated Incentive Mechanism and Full-Duplex Semantic Communications for Information Sharing</t>
+  </si>
+  <si>
+    <t>Detecting hallucinations in large language models using semantic entropy</t>
   </si>
   <si>
     <t>知乎文章</t>
@@ -1019,15 +1040,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A14" sqref="A14:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="86.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="108.545454545455" customWidth="1"/>
     <col min="4" max="4" width="27.5454545454545" customWidth="1"/>
     <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
   </cols>
@@ -1094,53 +1115,109 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:3">
       <c r="B8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9">
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10">
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1040,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D18"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1171,28 +1171,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1200,10 +1194,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1211,12 +1205,23 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>21</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>类型</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Detecting hallucinations in large language models using semantic entropy</t>
+  </si>
+  <si>
+    <t>FlashAttention Fast and Memory-Efficient Exact Attention with IO-Awareness</t>
   </si>
   <si>
     <t>知乎文章</t>
@@ -1043,7 +1046,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1171,14 +1174,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:3">
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -1186,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -1197,10 +1203,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1208,10 +1214,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -1219,10 +1225,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>类型</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Detecting hallucinations in large language models using semantic entropy</t>
+  </si>
+  <si>
+    <t>Attention Is All You Need</t>
   </si>
   <si>
     <t>FlashAttention Fast and Memory-Efficient Exact Attention with IO-Awareness</t>
@@ -1043,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1182,53 +1185,61 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>类型</t>
   </si>
@@ -85,13 +85,70 @@
     <t>AI-Generated Incentive Mechanism and Full-Duplex Semantic Communications for Information Sharing</t>
   </si>
   <si>
+    <t>AttentionStore: Cost-effective Attention Reuse across Multi-turn Conversations in Large Language Model Serving</t>
+  </si>
+  <si>
+    <t>SGLang: Efficient Execution of Structured Language Model Programs</t>
+  </si>
+  <si>
+    <t>SwiftKV: Fast Prefill-Optimized Inference with Knowledge-Preserving Model Transformation</t>
+  </si>
+  <si>
+    <t>Distilling the Knowledge in a Neural Network</t>
+  </si>
+  <si>
+    <t>Training Ultra Long Context Language Model with Fully Pipelined Distributed Transformer</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
     <t>Detecting hallucinations in large language models using semantic entropy</t>
   </si>
   <si>
+    <t>Self-attention Does Not Need O(n2) Memory</t>
+  </si>
+  <si>
+    <t>Neural Machine Translation by Jointly Learning to Align and Translate</t>
+  </si>
+  <si>
     <t>Attention Is All You Need</t>
   </si>
   <si>
     <t>FlashAttention Fast and Memory-Efficient Exact Attention with IO-Awareness</t>
+  </si>
+  <si>
+    <t>Mélange Cost Efficient Large Language Model Serving by Exploiting GPU Heterogeneity</t>
+  </si>
+  <si>
+    <t>Online normalizer calculation for softmax</t>
+  </si>
+  <si>
+    <t>FlashAttention-2 Faster Attention with Better Parallelism and Work Partitioning</t>
+  </si>
+  <si>
+    <t>Flash-Decoding for long-context inference</t>
+  </si>
+  <si>
+    <t>Lean Attention Hardware-Aware Scalable Attention Mechanism for the Decode-Phase of Transformers</t>
+  </si>
+  <si>
+    <t>Stream-K: Work-centric Parallel Decomposition for Dense Matrix-Matrix Multiplication on the GPU</t>
+  </si>
+  <si>
+    <t>Accelerating a Triton Fused Kernel for W4A16 Quantized Inference with SplitK work decomposition</t>
+  </si>
+  <si>
+    <t>Efficient Training of Large Language Models on Distributed Infrastructures: A Survey</t>
+  </si>
+  <si>
+    <t>Google Cloud demonstrates the world’s largest distributed training job for large language models across 50000+ TPU v5e chips</t>
+  </si>
+  <si>
+    <t>Fine-Tuning Large Language Models: A Guide into Distributed Parallel Training with DeepSpeed, Ray, and Instruction Following</t>
+  </si>
+  <si>
+    <t>Harnessing Distributed Training for LLMs: Single-Node and Multi-Node Configurations with UCX on InfiniBand</t>
   </si>
   <si>
     <t>知乎文章</t>
@@ -1046,15 +1103,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="108.545454545455" customWidth="1"/>
+    <col min="3" max="3" width="124.272727272727" customWidth="1"/>
     <col min="4" max="4" width="27.5454545454545" customWidth="1"/>
     <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
   </cols>
@@ -1169,77 +1226,250 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:2">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>类型</t>
   </si>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1402,20 +1402,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:4">
       <c r="B35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:2">
